--- a/doc/接口清单.xlsx
+++ b/doc/接口清单.xlsx
@@ -4,13 +4,93 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="13695"/>
+    <workbookView windowWidth="9495" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>调用路径</t>
+  </si>
+  <si>
+    <t>调用方法</t>
+  </si>
+  <si>
+    <t>提交参数</t>
+  </si>
+  <si>
+    <t>返回结果</t>
+  </si>
+  <si>
+    <t>上传文件</t>
+  </si>
+  <si>
+    <t>/upload</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>用户登录获取Token</t>
+  </si>
+  <si>
+    <t>/auth/token</t>
+  </si>
+  <si>
+    <t>验证Token</t>
+  </si>
+  <si>
+    <t>/auth/check</t>
+  </si>
+  <si>
+    <t>/user/</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>/company</t>
+  </si>
+  <si>
+    <t>/catalog</t>
+  </si>
+  <si>
+    <t>/bill</t>
+  </si>
+  <si>
+    <t>/supplier</t>
+  </si>
+  <si>
+    <t>/store</t>
+  </si>
+  <si>
+    <t>/member</t>
+  </si>
+  <si>
+    <t>/stock</t>
+  </si>
+  <si>
+    <t>/merchandise</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21,13 +101,25 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="文泉驿微米黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="文泉驿微米黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -368,12 +460,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,153 +586,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -943,14 +1062,519 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
+    <col min="3" max="5" width="9.88888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B49"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
